--- a/file.xlsx
+++ b/file.xlsx
@@ -470,16 +470,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Апрель</t>
+          <t>Все</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>144</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3">
@@ -495,11 +495,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Декабрь</t>
+          <t>Апрель</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>140</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4">
@@ -510,16 +510,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Декабрь</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>176</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5">
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>115</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6">
@@ -550,16 +550,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Декабрь</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>431</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7">
@@ -575,11 +575,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Февраль</t>
+          <t>Апрель</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>345</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8">
@@ -590,16 +590,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Декабрь</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>250</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9">
@@ -615,11 +615,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Апрель</t>
+          <t>Все</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>120</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -635,11 +635,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Сентябрь</t>
+          <t>Все</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>139</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -655,11 +655,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Сентябрь</t>
+          <t>Февраль</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>408</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12">
@@ -670,16 +670,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Сентябрь</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>255</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13">
@@ -695,11 +695,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Декабрь</t>
+          <t>Все</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>409</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>162</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15">
@@ -735,11 +735,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Февраль</t>
+          <t>Декабрь</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>147</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16">
@@ -750,7 +750,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>116</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17">
@@ -770,16 +770,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Декабрь</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>319</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
@@ -790,16 +790,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Сентябрь</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>334</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19">
@@ -815,11 +815,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Декабрь</t>
+          <t>Апрель</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>218</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20">
@@ -835,11 +835,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Апрель</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>147</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21">
@@ -855,11 +855,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Декабрь</t>
+          <t>Апрель</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>151</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22">
@@ -875,11 +875,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Декабрь</t>
+          <t>Апрель</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>350</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23">
@@ -890,16 +890,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Сентябрь</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24">
@@ -915,11 +915,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Декабрь</t>
+          <t>Февраль</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>328</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25">
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
@@ -955,11 +955,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Сентябрь</t>
+          <t>Февраль</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27">
@@ -970,16 +970,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Апрель</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>370</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28">
@@ -995,11 +995,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Сентябрь</t>
+          <t>Февраль</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>252</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29">
@@ -1015,11 +1015,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Апрель</t>
+          <t>Сентябрь</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>358</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30">
@@ -1035,11 +1035,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Сентябрь</t>
+          <t>Декабрь</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>280</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31"/>
@@ -1092,12 +1092,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Волна</t>
+          <t>Лесной</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>не едет</t>
+          <t>едет</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Волна</t>
+          <t>Искра</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>едет</t>
+          <t>не едет</t>
         </is>
       </c>
     </row>
@@ -1160,12 +1160,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Искра</t>
+          <t>Янтарь</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>едет</t>
+          <t>не едет</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Прибой</t>
+          <t>Янтарь</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Волна</t>
+          <t>Искра</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>едет</t>
+          <t>не едет</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Прибой</t>
+          <t>Искра</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Волна</t>
+          <t>Прибой</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Прибой</t>
+          <t>Искра</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1262,12 +1262,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Волна</t>
+          <t>Янтарь</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>едет</t>
+          <t>не едет</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Волна</t>
+          <t>Лесной</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Прибой</t>
+          <t>Волна</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1330,12 +1330,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Лесной</t>
+          <t>Волна</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>не едет</t>
+          <t>едет</t>
         </is>
       </c>
     </row>
@@ -1347,12 +1347,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Волна</t>
+          <t>Прибой</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>едет</t>
+          <t>не едет</t>
         </is>
       </c>
     </row>
@@ -1364,12 +1364,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Искра</t>
+          <t>Лесной</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>едет</t>
+          <t>не едет</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Искра</t>
+          <t>Лесной</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Лесной</t>
+          <t>Волна</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Искра</t>
+          <t>Волна</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Янтарь</t>
+          <t>Прибой</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Волна</t>
+          <t>Прибой</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>едет</t>
+          <t>не едет</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Янтарь</t>
+          <t>Искра</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Искра</t>
+          <t>Янтарь</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Волна</t>
+          <t>Лесной</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1517,12 +1517,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Янтарь</t>
+          <t>Лесной</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>едет</t>
+          <t>не едет</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Волна</t>
+          <t>Лесной</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Янтарь</t>
+          <t>Искра</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Янтарь</t>
+          <t>Прибой</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">

--- a/file.xlsx
+++ b/file.xlsx
@@ -470,16 +470,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Декабрь</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>430</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3">
@@ -495,11 +495,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Апрель</t>
+          <t>Декабрь</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>278</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
@@ -515,11 +515,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Декабрь</t>
+          <t>Сентябрь</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5">
@@ -535,11 +535,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Апрель</t>
+          <t>Декабрь</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>385</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6">
@@ -555,11 +555,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Декабрь</t>
+          <t>Февраль</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7">
@@ -575,11 +575,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Апрель</t>
+          <t>Все</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>292</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -595,11 +595,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Декабрь</t>
+          <t>Все</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>295</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9">
@@ -610,7 +610,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>82</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10">
@@ -635,11 +635,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Апрель</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>357</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -670,16 +670,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Сентябрь</t>
+          <t>Все</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>313</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13">
@@ -690,7 +690,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>119</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14">
@@ -710,16 +710,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Апрель</t>
+          <t>Все</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>264</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
@@ -735,11 +735,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Декабрь</t>
+          <t>Февраль</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>225</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16">
@@ -750,16 +750,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Все</t>
+          <t>Апрель</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>250</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17">
@@ -775,11 +775,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Декабрь</t>
+          <t>Февраль</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>84</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>301</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19">
@@ -810,16 +810,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Апрель</t>
+          <t>Все</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>442</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>309</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
@@ -855,11 +855,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Апрель</t>
+          <t>Декабрь</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22">
@@ -870,16 +870,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Апрель</t>
+          <t>Все</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>286</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23">
@@ -895,11 +895,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Сентябрь</t>
+          <t>Апрель</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>295</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24">
@@ -915,11 +915,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Февраль</t>
+          <t>Апрель</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>292</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25">
@@ -935,11 +935,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Февраль</t>
+          <t>Сентябрь</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>253</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26">
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>339</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27">
@@ -975,11 +975,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Апрель</t>
+          <t>Февраль</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>412</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28">
@@ -995,11 +995,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Февраль</t>
+          <t>Декабрь</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>301</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29">
@@ -1010,16 +1010,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Сентябрь</t>
+          <t>Все</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>298</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30">
@@ -1035,11 +1035,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Декабрь</t>
+          <t>Февраль</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>247</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31"/>
@@ -1092,12 +1092,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Лесной</t>
+          <t>Янтарь</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>едет</t>
+          <t>не едет</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Лесной</t>
+          <t>Искра</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Искра</t>
+          <t>Янтарь</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Янтарь</t>
+          <t>Искра</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Янтарь</t>
+          <t>Волна</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Искра</t>
+          <t>Прибой</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Искра</t>
+          <t>Лесной</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>не едет</t>
+          <t>едет</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Прибой</t>
+          <t>Искра</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Искра</t>
+          <t>Янтарь</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1262,12 +1262,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Янтарь</t>
+          <t>Прибой</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>не едет</t>
+          <t>едет</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1279,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Лесной</t>
+          <t>Искра</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>не едет</t>
+          <t>едет</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Янтарь</t>
+          <t>Прибой</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>не едет</t>
+          <t>едет</t>
         </is>
       </c>
     </row>
@@ -1330,12 +1330,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Волна</t>
+          <t>Искра</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>едет</t>
+          <t>не едет</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Прибой</t>
+          <t>Лесной</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Лесной</t>
+          <t>Янтарь</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1381,12 +1381,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Лесной</t>
+          <t>Прибой</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>не едет</t>
+          <t>едет</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Волна</t>
+          <t>Прибой</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Волна</t>
+          <t>Искра</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1432,12 +1432,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Прибой</t>
+          <t>Волна</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>не едет</t>
+          <t>едет</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Прибой</t>
+          <t>Лесной</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Искра</t>
+          <t>Прибой</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Янтарь</t>
+          <t>Искра</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Лесной</t>
+          <t>Янтарь</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Лесной</t>
+          <t>Янтарь</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Искра</t>
+          <t>Лесной</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>не едет</t>
+          <t>едет</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Прибой</t>
+          <t>Искра</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
